--- a/РАБОЧИЙ СТОЛ/01,08,25 НОРД/заказ НОРД от ,08,25 на ,08,25.xlsx
+++ b/РАБОЧИЙ СТОЛ/01,08,25 НОРД/заказ НОРД от ,08,25 на ,08,25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\01,08,25 НОРД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836AF09E-F41A-41CB-8EC6-6690F114A01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4226DE1B-6BDF-4684-812C-BF1A4E17C184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Бердянск</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Мелитополь</t>
+  </si>
+  <si>
+    <t>Филе пангасиуса 220+ 5% 1/10  Норд</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Креветки «Королевские» 30-40 1/5 Норд</t>
+  </si>
+  <si>
+    <t>Минтай б/г «Кайтес» 25+ 1/24 Норд</t>
   </si>
 </sst>
 </file>
@@ -129,13 +141,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{F3FBF610-968F-4F71-985D-F8BCD1850605}"/>
@@ -417,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -450,24 +464,108 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>715</v>
+      </c>
+      <c r="D3" s="6">
+        <v>30</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>185</v>
+      </c>
+      <c r="D4" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>250</v>
+      </c>
+      <c r="D5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>715</v>
+      </c>
+      <c r="D9" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>185</v>
+      </c>
+      <c r="D10" s="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>250</v>
+      </c>
+      <c r="D11" s="6">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
